--- a/Code/Results/Cases/Case_5_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.86680926811865</v>
+        <v>11.57568926279069</v>
       </c>
       <c r="C2">
-        <v>7.186211401870733</v>
+        <v>8.411402818432375</v>
       </c>
       <c r="D2">
-        <v>5.250806173063887</v>
+        <v>5.779875983201483</v>
       </c>
       <c r="E2">
-        <v>7.4978319621537</v>
+        <v>12.33806647215485</v>
       </c>
       <c r="F2">
-        <v>19.47105288620739</v>
+        <v>27.57938297029872</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>15.63176315721416</v>
+        <v>24.88168758446652</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.9466651452493</v>
+        <v>8.990456234174884</v>
       </c>
       <c r="L2">
-        <v>6.346747182324728</v>
+        <v>10.13921418333481</v>
       </c>
       <c r="M2">
-        <v>9.555489143383719</v>
+        <v>13.85074040336108</v>
       </c>
       <c r="N2">
-        <v>12.9511526696746</v>
+        <v>20.01073722370112</v>
       </c>
       <c r="O2">
-        <v>16.02378249078517</v>
+        <v>24.77637013482199</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.00260538209461</v>
+        <v>11.35274404535034</v>
       </c>
       <c r="C3">
-        <v>7.046726007831279</v>
+        <v>8.368775653057321</v>
       </c>
       <c r="D3">
-        <v>5.096122596428199</v>
+        <v>5.726312211540698</v>
       </c>
       <c r="E3">
-        <v>7.505389141661089</v>
+        <v>12.36460280033805</v>
       </c>
       <c r="F3">
-        <v>19.19305964641099</v>
+        <v>27.61515176840143</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>15.73202213084776</v>
+        <v>24.96151525016302</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.32424222053251</v>
+        <v>8.824049441003369</v>
       </c>
       <c r="L3">
-        <v>6.26314901929179</v>
+        <v>10.14659296349595</v>
       </c>
       <c r="M3">
-        <v>9.23514766855644</v>
+        <v>13.81954460307029</v>
       </c>
       <c r="N3">
-        <v>13.13958715950806</v>
+        <v>20.0681507714159</v>
       </c>
       <c r="O3">
-        <v>16.01281136494622</v>
+        <v>24.84301352394822</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.4402070248122</v>
+        <v>11.21566733690699</v>
       </c>
       <c r="C4">
-        <v>6.959424471925137</v>
+        <v>8.342112319003272</v>
       </c>
       <c r="D4">
-        <v>4.998082326911841</v>
+        <v>5.692592784133669</v>
       </c>
       <c r="E4">
-        <v>7.513358658889649</v>
+        <v>12.38243338315666</v>
       </c>
       <c r="F4">
-        <v>19.03569224957857</v>
+        <v>27.6433379468749</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>15.80338383834063</v>
+        <v>25.01454087973661</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.921989541402667</v>
+        <v>8.721702006289293</v>
       </c>
       <c r="L4">
-        <v>6.214044728787091</v>
+        <v>10.15249578877338</v>
       </c>
       <c r="M4">
-        <v>9.036217970834379</v>
+        <v>13.80233469023047</v>
       </c>
       <c r="N4">
-        <v>13.25802939279017</v>
+        <v>20.10506738927893</v>
       </c>
       <c r="O4">
-        <v>16.01746564778177</v>
+        <v>24.88844642166259</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.20299394005317</v>
+        <v>11.15983759346538</v>
       </c>
       <c r="C5">
-        <v>6.923453130169446</v>
+        <v>8.331126388260564</v>
       </c>
       <c r="D5">
-        <v>4.957392166454508</v>
+        <v>5.678648164320137</v>
       </c>
       <c r="E5">
-        <v>7.517427273635947</v>
+        <v>12.39008638610724</v>
       </c>
       <c r="F5">
-        <v>18.9749080902933</v>
+        <v>27.65638779086833</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>15.83484648866064</v>
+        <v>25.03715771493107</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.753067877873869</v>
+        <v>8.680006464146386</v>
       </c>
       <c r="L5">
-        <v>6.194606110294066</v>
+        <v>10.15524689660552</v>
       </c>
       <c r="M5">
-        <v>8.954711414661624</v>
+        <v>13.79581564970956</v>
       </c>
       <c r="N5">
-        <v>13.30700295954638</v>
+        <v>20.12053095236785</v>
       </c>
       <c r="O5">
-        <v>16.02213700252524</v>
+        <v>24.90809458980645</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.16311862075724</v>
+        <v>11.15057121412949</v>
       </c>
       <c r="C6">
-        <v>6.917456893243504</v>
+        <v>8.329294993222106</v>
       </c>
       <c r="D6">
-        <v>4.950592034120719</v>
+        <v>5.67632052545126</v>
       </c>
       <c r="E6">
-        <v>7.518151971754031</v>
+        <v>12.39138053936731</v>
       </c>
       <c r="F6">
-        <v>18.96501653920919</v>
+        <v>27.65864910460508</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>15.84021235381208</v>
+        <v>25.04097412678662</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.724718302147812</v>
+        <v>8.673085305471083</v>
       </c>
       <c r="L6">
-        <v>6.19141320784356</v>
+        <v>10.15572460911251</v>
       </c>
       <c r="M6">
-        <v>8.94115441650232</v>
+        <v>13.79476315752914</v>
       </c>
       <c r="N6">
-        <v>13.31517821319622</v>
+        <v>20.12312405184801</v>
       </c>
       <c r="O6">
-        <v>16.02307761640667</v>
+        <v>24.91142560415426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43704045892219</v>
+        <v>11.21491417227256</v>
       </c>
       <c r="C7">
-        <v>6.958940921039429</v>
+        <v>8.341964642681456</v>
       </c>
       <c r="D7">
-        <v>4.99753650800487</v>
+        <v>5.692405539756382</v>
       </c>
       <c r="E7">
-        <v>7.513410227085469</v>
+        <v>12.3825350272269</v>
       </c>
       <c r="F7">
-        <v>19.03485896739347</v>
+        <v>27.64350761223974</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>15.80379861639265</v>
+        <v>25.01484181529224</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.919731574768111</v>
+        <v>8.72113956368014</v>
       </c>
       <c r="L7">
-        <v>6.213780242479084</v>
+        <v>10.15253149087058</v>
       </c>
       <c r="M7">
-        <v>9.035120362936265</v>
+        <v>13.80224476482389</v>
       </c>
       <c r="N7">
-        <v>13.25868698025713</v>
+        <v>20.10527423519199</v>
       </c>
       <c r="O7">
-        <v>16.01751753200963</v>
+        <v>24.88870681413931</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57540125294335</v>
+        <v>11.49890249683496</v>
       </c>
       <c r="C8">
-        <v>7.138473157145262</v>
+        <v>8.396808381242572</v>
       </c>
       <c r="D8">
-        <v>5.198125754454531</v>
+        <v>5.76158282640305</v>
       </c>
       <c r="E8">
-        <v>7.499736940955976</v>
+        <v>12.34689737920923</v>
       </c>
       <c r="F8">
-        <v>19.37243588898134</v>
+        <v>27.59042362197627</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>15.66424734013475</v>
+        <v>24.90837955863756</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73624691032851</v>
+        <v>8.933147954733686</v>
       </c>
       <c r="L8">
-        <v>6.317468355489391</v>
+        <v>10.14147396146905</v>
       </c>
       <c r="M8">
-        <v>9.445570186615269</v>
+        <v>13.83958374353295</v>
       </c>
       <c r="N8">
-        <v>13.01556654716097</v>
+        <v>20.0301886790376</v>
       </c>
       <c r="O8">
-        <v>16.01758212846775</v>
+        <v>24.79841135351477</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.55751178705319</v>
+        <v>12.05101497620483</v>
       </c>
       <c r="C9">
-        <v>7.476523836729101</v>
+        <v>8.500346187602444</v>
       </c>
       <c r="D9">
-        <v>5.565897264559923</v>
+        <v>5.890419064262623</v>
       </c>
       <c r="E9">
-        <v>7.500061597100954</v>
+        <v>12.28919261571202</v>
       </c>
       <c r="F9">
-        <v>20.13987874443589</v>
+        <v>27.53574918551126</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>15.47221607964692</v>
+        <v>24.73144106361068</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.17663601483529</v>
+        <v>9.345153287727014</v>
       </c>
       <c r="L9">
-        <v>6.537871422810529</v>
+        <v>10.13064981085868</v>
       </c>
       <c r="M9">
-        <v>10.22785076454897</v>
+        <v>13.92799132840898</v>
       </c>
       <c r="N9">
-        <v>12.55972481126562</v>
+        <v>19.89609731982577</v>
       </c>
       <c r="O9">
-        <v>16.11200483039957</v>
+        <v>24.65720150289088</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.86390491856588</v>
+        <v>12.44948469270484</v>
       </c>
       <c r="C10">
-        <v>7.715308300232652</v>
+        <v>8.573810382261948</v>
       </c>
       <c r="D10">
-        <v>5.819010598297955</v>
+        <v>5.980624122030435</v>
       </c>
       <c r="E10">
-        <v>7.517822976805499</v>
+        <v>12.25420025585147</v>
       </c>
       <c r="F10">
-        <v>20.76710739276544</v>
+        <v>27.5257312437812</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>15.38639407818573</v>
+        <v>24.6208604073553</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.13576542717183</v>
+        <v>9.642513765553016</v>
       </c>
       <c r="L10">
-        <v>6.709376812873981</v>
+        <v>10.12927665151722</v>
       </c>
       <c r="M10">
-        <v>10.78306332396137</v>
+        <v>14.00185749826657</v>
       </c>
       <c r="N10">
-        <v>12.23632520509604</v>
+        <v>19.80551850103056</v>
       </c>
       <c r="O10">
-        <v>16.24406667040049</v>
+        <v>24.57537437890565</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42626397018449</v>
+        <v>12.62836285587469</v>
       </c>
       <c r="C11">
-        <v>7.821671179371867</v>
+        <v>8.606631694091629</v>
       </c>
       <c r="D11">
-        <v>5.930188966641614</v>
+        <v>6.020634394715628</v>
       </c>
       <c r="E11">
-        <v>7.529914305607107</v>
+        <v>12.2398839384368</v>
       </c>
       <c r="F11">
-        <v>21.06588323540181</v>
+        <v>27.52771327147611</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>15.36059724888229</v>
+        <v>24.57477242455027</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.55053250426055</v>
+        <v>9.776024249251392</v>
       </c>
       <c r="L11">
-        <v>6.789293150509533</v>
+        <v>10.13007038775871</v>
       </c>
       <c r="M11">
-        <v>11.03040155467679</v>
+        <v>14.03731621514002</v>
       </c>
       <c r="N11">
-        <v>12.09141115712878</v>
+        <v>19.76601863288465</v>
       </c>
       <c r="O11">
-        <v>16.31881852362357</v>
+        <v>24.54291948694539</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63467201351387</v>
+        <v>12.69569073700127</v>
       </c>
       <c r="C12">
-        <v>7.861609506654902</v>
+        <v>8.618971370480773</v>
       </c>
       <c r="D12">
-        <v>5.971701046474146</v>
+        <v>6.035632995890084</v>
       </c>
       <c r="E12">
-        <v>7.535086397680846</v>
+        <v>12.23469265243305</v>
       </c>
       <c r="F12">
-        <v>21.18092039064377</v>
+        <v>27.52940236268616</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>15.3528399243629</v>
+        <v>24.5579265447453</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.70450075040252</v>
+        <v>9.826280686480796</v>
       </c>
       <c r="L12">
-        <v>6.81981255167925</v>
+        <v>10.13057390198584</v>
       </c>
       <c r="M12">
-        <v>11.12324018476161</v>
+        <v>14.05100315682215</v>
       </c>
       <c r="N12">
-        <v>12.03682763358918</v>
+        <v>19.75130497737662</v>
       </c>
       <c r="O12">
-        <v>16.34931816358331</v>
+        <v>24.53131610064587</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.58998901835131</v>
+        <v>12.68120969209687</v>
       </c>
       <c r="C13">
-        <v>7.853023349471624</v>
+        <v>8.616317809114515</v>
       </c>
       <c r="D13">
-        <v>5.962787134346989</v>
+        <v>6.032409637484744</v>
       </c>
       <c r="E13">
-        <v>7.533945844154843</v>
+        <v>12.23580046561025</v>
       </c>
       <c r="F13">
-        <v>21.15606130052186</v>
+        <v>27.52899688040958</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>15.35441941312991</v>
+        <v>24.56152761930299</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.67147847168025</v>
+        <v>9.815471189816416</v>
       </c>
       <c r="L13">
-        <v>6.813228482229534</v>
+        <v>10.13045645233575</v>
       </c>
       <c r="M13">
-        <v>11.10328334973114</v>
+        <v>14.04804401029011</v>
       </c>
       <c r="N13">
-        <v>12.04857057580526</v>
+        <v>19.75446298749262</v>
       </c>
       <c r="O13">
-        <v>16.34265072104111</v>
+        <v>24.53378454962517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.44350065065257</v>
+        <v>12.63391053081436</v>
       </c>
       <c r="C14">
-        <v>7.824963795745429</v>
+        <v>8.60764868870492</v>
       </c>
       <c r="D14">
-        <v>5.933616088448948</v>
+        <v>6.021871422133715</v>
       </c>
       <c r="E14">
-        <v>7.530327830899044</v>
+        <v>12.23945224091159</v>
       </c>
       <c r="F14">
-        <v>21.07530960343536</v>
+        <v>27.52783343689536</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>15.35991811539021</v>
+        <v>24.57337434353972</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.5632615540304</v>
+        <v>9.780165176083647</v>
       </c>
       <c r="L14">
-        <v>6.79179894368268</v>
+        <v>10.13010775101992</v>
       </c>
       <c r="M14">
-        <v>11.03805630899845</v>
+        <v>14.03843709133942</v>
       </c>
       <c r="N14">
-        <v>12.08691482462704</v>
+        <v>19.7648032458323</v>
       </c>
       <c r="O14">
-        <v>16.32128334146809</v>
+        <v>24.54195110493188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.35318176175626</v>
+        <v>12.60488321821591</v>
       </c>
       <c r="C15">
-        <v>7.807731985286992</v>
+        <v>8.60232691566272</v>
       </c>
       <c r="D15">
-        <v>5.915670793728008</v>
+        <v>6.015396462184384</v>
       </c>
       <c r="E15">
-        <v>7.528189453923308</v>
+        <v>12.24171899973128</v>
       </c>
       <c r="F15">
-        <v>21.02609281811639</v>
+        <v>27.52724295533509</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>15.3635513927989</v>
+        <v>24.58070981891753</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.49657269974596</v>
+        <v>9.758498634766934</v>
       </c>
       <c r="L15">
-        <v>6.778705707259318</v>
+        <v>10.12992055896488</v>
       </c>
       <c r="M15">
-        <v>10.99799375325198</v>
+        <v>14.03258614273712</v>
       </c>
       <c r="N15">
-        <v>12.11043910076374</v>
+        <v>19.77116870831139</v>
       </c>
       <c r="O15">
-        <v>16.30848315230624</v>
+        <v>24.54704279149088</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.82651489291533</v>
+        <v>12.43774080459659</v>
       </c>
       <c r="C16">
-        <v>7.70831050851621</v>
+        <v>8.571653138534348</v>
       </c>
       <c r="D16">
-        <v>5.811663405212762</v>
+        <v>5.977988302290963</v>
       </c>
       <c r="E16">
-        <v>7.517114918985243</v>
+        <v>12.25516806475383</v>
       </c>
       <c r="F16">
-        <v>20.74784921103262</v>
+        <v>27.52573316143254</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>15.38835553551108</v>
+        <v>24.62395723290168</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.10822600124265</v>
+        <v>9.633748960458508</v>
       </c>
       <c r="L16">
-        <v>6.704190897761536</v>
+        <v>10.12925323540448</v>
       </c>
       <c r="M16">
-        <v>10.7667876517323</v>
+        <v>13.99957691484025</v>
       </c>
       <c r="N16">
-        <v>12.24583793800787</v>
+        <v>19.80813412502891</v>
       </c>
       <c r="O16">
-        <v>16.23948389250337</v>
+        <v>24.5775914155775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.49527712165277</v>
+        <v>12.33454460531684</v>
       </c>
       <c r="C17">
-        <v>7.646729047045859</v>
+        <v>8.552680444375687</v>
       </c>
       <c r="D17">
-        <v>5.746828819615712</v>
+        <v>5.954773542777228</v>
       </c>
       <c r="E17">
-        <v>7.511360321669096</v>
+        <v>12.26382866264432</v>
       </c>
       <c r="F17">
-        <v>20.58057466564065</v>
+        <v>27.52648073939828</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>15.40703929685783</v>
+        <v>24.65156817147299</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.86446979694441</v>
+        <v>9.556733273345991</v>
       </c>
       <c r="L17">
-        <v>6.658952994531393</v>
+        <v>10.12920643922667</v>
       </c>
       <c r="M17">
-        <v>10.62355691330932</v>
+        <v>13.97979712026147</v>
       </c>
       <c r="N17">
-        <v>12.32944782920049</v>
+        <v>19.8312471068739</v>
       </c>
       <c r="O17">
-        <v>16.20097357917427</v>
+        <v>24.59755402069115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.30175011924541</v>
+        <v>12.27496785318845</v>
       </c>
       <c r="C18">
-        <v>7.611096877449336</v>
+        <v>8.541711755757433</v>
       </c>
       <c r="D18">
-        <v>5.709165511864225</v>
+        <v>5.941324896674723</v>
       </c>
       <c r="E18">
-        <v>7.508427044774193</v>
+        <v>12.26896080853218</v>
       </c>
       <c r="F18">
-        <v>20.48563080716132</v>
+        <v>27.52752637944092</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>15.41902570627476</v>
+        <v>24.66784603111692</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.72223907408773</v>
+        <v>9.512272906571333</v>
       </c>
       <c r="L18">
-        <v>6.633112919155253</v>
+        <v>10.12931309541837</v>
       </c>
       <c r="M18">
-        <v>10.54068562415127</v>
+        <v>13.96859552769376</v>
       </c>
       <c r="N18">
-        <v>12.37774683400472</v>
+        <v>19.84470161863103</v>
       </c>
       <c r="O18">
-        <v>16.18020013782329</v>
+        <v>24.60948479051302</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.2357072317796</v>
+        <v>12.25476030140931</v>
       </c>
       <c r="C19">
-        <v>7.598996452780517</v>
+        <v>8.537988405168649</v>
       </c>
       <c r="D19">
-        <v>5.696350053546953</v>
+        <v>5.936755063520695</v>
       </c>
       <c r="E19">
-        <v>7.507498065445948</v>
+        <v>12.27072437542132</v>
       </c>
       <c r="F19">
-        <v>20.45370330140083</v>
+        <v>27.5279861981237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>15.4232938621165</v>
+        <v>24.67342556859754</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.6737337853388</v>
+        <v>9.497192902396275</v>
       </c>
       <c r="L19">
-        <v>6.624395249392295</v>
+        <v>10.12937217822951</v>
       </c>
       <c r="M19">
-        <v>10.51254520660172</v>
+        <v>13.96483317857603</v>
       </c>
       <c r="N19">
-        <v>12.39413663012158</v>
+        <v>19.84928469023228</v>
       </c>
       <c r="O19">
-        <v>16.17340049295532</v>
+        <v>24.61360139948962</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53084891516152</v>
+        <v>12.34555338294733</v>
       </c>
       <c r="C20">
-        <v>7.65330656056812</v>
+        <v>8.554705948100933</v>
       </c>
       <c r="D20">
-        <v>5.753769233397934</v>
+        <v>5.957254780113281</v>
       </c>
       <c r="E20">
-        <v>7.51193380993818</v>
+        <v>12.26289112261379</v>
       </c>
       <c r="F20">
-        <v>20.59825034579462</v>
+        <v>27.52633745158517</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>15.40492127798103</v>
+        <v>24.64858787176763</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.89062800975345</v>
+        <v>9.564948948323988</v>
       </c>
       <c r="L20">
-        <v>6.663750179170918</v>
+        <v>10.12919760367449</v>
       </c>
       <c r="M20">
-        <v>10.6388551989784</v>
+        <v>13.98188463159186</v>
       </c>
       <c r="N20">
-        <v>12.32052597499557</v>
+        <v>19.82877008344163</v>
       </c>
       <c r="O20">
-        <v>16.20492998121251</v>
+        <v>24.59538251089276</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48665081874301</v>
+        <v>12.6478150593449</v>
       </c>
       <c r="C21">
-        <v>7.833214867494992</v>
+        <v>8.610197460400556</v>
       </c>
       <c r="D21">
-        <v>5.942200447386384</v>
+        <v>6.024970928064588</v>
       </c>
       <c r="E21">
-        <v>7.531374294674877</v>
+        <v>12.23837338696554</v>
       </c>
       <c r="F21">
-        <v>21.09897714370857</v>
+        <v>27.52814971430247</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>15.35824755857046</v>
+        <v>24.56987820612718</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.59513142909755</v>
+        <v>9.790543948604363</v>
       </c>
       <c r="L21">
-        <v>6.798086474821143</v>
+        <v>10.13020467375548</v>
       </c>
       <c r="M21">
-        <v>11.05723792294351</v>
+        <v>14.04125189482565</v>
       </c>
       <c r="N21">
-        <v>12.07564445802525</v>
+        <v>19.76175944535382</v>
       </c>
       <c r="O21">
-        <v>16.32749930833137</v>
+        <v>24.53953375003594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.08485214244564</v>
+        <v>12.84294634737516</v>
       </c>
       <c r="C22">
-        <v>7.948814418533629</v>
+        <v>8.645943959608452</v>
       </c>
       <c r="D22">
-        <v>6.061912440757297</v>
+        <v>6.068336654258331</v>
       </c>
       <c r="E22">
-        <v>7.547545900635932</v>
+        <v>12.2236900264654</v>
       </c>
       <c r="F22">
-        <v>21.43727168689294</v>
+        <v>27.53480336634743</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>15.33951905882117</v>
+        <v>24.52197303457419</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.03753044503384</v>
+        <v>9.936208007694272</v>
       </c>
       <c r="L22">
-        <v>6.887372816030111</v>
+        <v>10.13204523118389</v>
       </c>
       <c r="M22">
-        <v>11.3258522583307</v>
+        <v>14.08156069007261</v>
       </c>
       <c r="N22">
-        <v>11.91729153673497</v>
+        <v>19.71938635626625</v>
       </c>
       <c r="O22">
-        <v>16.42042232575768</v>
+        <v>24.50703555739896</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.76798749632211</v>
+        <v>12.73904283088686</v>
       </c>
       <c r="C23">
-        <v>7.887302086324565</v>
+        <v>8.626914004594752</v>
       </c>
       <c r="D23">
-        <v>5.99834009372916</v>
+        <v>6.045274697716795</v>
       </c>
       <c r="E23">
-        <v>7.538592256341698</v>
+        <v>12.23140428758428</v>
       </c>
       <c r="F23">
-        <v>21.25571973824512</v>
+        <v>27.53075251474521</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>15.34840128356706</v>
+        <v>24.54721723150647</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.80306135466853</v>
+        <v>9.858641955212432</v>
       </c>
       <c r="L23">
-        <v>6.839587895831711</v>
+        <v>10.13095506149635</v>
       </c>
       <c r="M23">
-        <v>11.18294988798303</v>
+        <v>14.05991161629614</v>
       </c>
       <c r="N23">
-        <v>12.00166113886504</v>
+        <v>19.74187188874492</v>
       </c>
       <c r="O23">
-        <v>16.36962844518146</v>
+        <v>24.52401400486011</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.5147765478721</v>
+        <v>12.34057708161124</v>
       </c>
       <c r="C24">
-        <v>7.650333576324354</v>
+        <v>8.553790407755452</v>
       </c>
       <c r="D24">
-        <v>5.750632682655652</v>
+        <v>5.956133330566979</v>
       </c>
       <c r="E24">
-        <v>7.511673368735843</v>
+        <v>12.26331450769846</v>
       </c>
       <c r="F24">
-        <v>20.59025535398623</v>
+        <v>27.52640031356381</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>15.40587496489628</v>
+        <v>24.64993400697641</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.87880839813656</v>
+        <v>9.561235208060253</v>
       </c>
       <c r="L24">
-        <v>6.661580848118027</v>
+        <v>10.12920118213006</v>
       </c>
       <c r="M24">
-        <v>10.63194047700919</v>
+        <v>13.98094033739099</v>
       </c>
       <c r="N24">
-        <v>12.32455882529789</v>
+        <v>19.82988942685225</v>
       </c>
       <c r="O24">
-        <v>16.20313704131194</v>
+        <v>24.59636283634959</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.04781181920885</v>
+        <v>11.90261629527803</v>
       </c>
       <c r="C25">
-        <v>7.386685679567432</v>
+        <v>8.472782361473815</v>
       </c>
       <c r="D25">
-        <v>5.469309289688687</v>
+        <v>5.856326282879941</v>
       </c>
       <c r="E25">
-        <v>7.496966723501232</v>
+        <v>12.30350151989022</v>
       </c>
       <c r="F25">
-        <v>19.92103777908864</v>
+        <v>27.54524434100038</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>15.51487109616698</v>
+        <v>24.77589860881516</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.804338638008</v>
+        <v>9.234418912979219</v>
       </c>
       <c r="L25">
-        <v>6.476502529507634</v>
+        <v>10.13241935430583</v>
       </c>
       <c r="M25">
-        <v>10.0192776057263</v>
+        <v>13.90248317618695</v>
       </c>
       <c r="N25">
-        <v>12.68092753629283</v>
+        <v>19.93097288709414</v>
       </c>
       <c r="O25">
-        <v>16.07581936662443</v>
+        <v>24.6915570317898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.57568926279069</v>
+        <v>12.86680926811872</v>
       </c>
       <c r="C2">
-        <v>8.411402818432375</v>
+        <v>7.186211401870593</v>
       </c>
       <c r="D2">
-        <v>5.779875983201483</v>
+        <v>5.250806173063769</v>
       </c>
       <c r="E2">
-        <v>12.33806647215485</v>
+        <v>7.497831962153644</v>
       </c>
       <c r="F2">
-        <v>27.57938297029872</v>
+        <v>19.47105288620745</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>24.88168758446652</v>
+        <v>15.6317631572141</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.990456234174884</v>
+        <v>10.94666514524932</v>
       </c>
       <c r="L2">
-        <v>10.13921418333481</v>
+        <v>6.346747182324802</v>
       </c>
       <c r="M2">
-        <v>13.85074040336108</v>
+        <v>9.555489143383708</v>
       </c>
       <c r="N2">
-        <v>20.01073722370112</v>
+        <v>12.9511526696746</v>
       </c>
       <c r="O2">
-        <v>24.77637013482199</v>
+        <v>16.02378249078519</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.35274404535034</v>
+        <v>12.00260538209466</v>
       </c>
       <c r="C3">
-        <v>8.368775653057321</v>
+        <v>7.046726007831264</v>
       </c>
       <c r="D3">
-        <v>5.726312211540698</v>
+        <v>5.096122596428035</v>
       </c>
       <c r="E3">
-        <v>12.36460280033805</v>
+        <v>7.505389141661152</v>
       </c>
       <c r="F3">
-        <v>27.61515176840143</v>
+        <v>19.19305964641099</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.96151525016302</v>
+        <v>15.73202213084774</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.824049441003369</v>
+        <v>10.32424222053252</v>
       </c>
       <c r="L3">
-        <v>10.14659296349595</v>
+        <v>6.263149019291812</v>
       </c>
       <c r="M3">
-        <v>13.81954460307029</v>
+        <v>9.235147668556438</v>
       </c>
       <c r="N3">
-        <v>20.0681507714159</v>
+        <v>13.13958715950806</v>
       </c>
       <c r="O3">
-        <v>24.84301352394822</v>
+        <v>16.0128113649462</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21566733690699</v>
+        <v>11.44020702481226</v>
       </c>
       <c r="C4">
-        <v>8.342112319003272</v>
+        <v>6.95942447192489</v>
       </c>
       <c r="D4">
-        <v>5.692592784133669</v>
+        <v>4.998082326911933</v>
       </c>
       <c r="E4">
-        <v>12.38243338315666</v>
+        <v>7.513358658889594</v>
       </c>
       <c r="F4">
-        <v>27.6433379468749</v>
+        <v>19.03569224957872</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>25.01454087973661</v>
+        <v>15.80338383834079</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.721702006289293</v>
+        <v>9.921989541402604</v>
       </c>
       <c r="L4">
-        <v>10.15249578877338</v>
+        <v>6.214044728787107</v>
       </c>
       <c r="M4">
-        <v>13.80233469023047</v>
+        <v>9.036217970834402</v>
       </c>
       <c r="N4">
-        <v>20.10506738927893</v>
+        <v>13.25802939279027</v>
       </c>
       <c r="O4">
-        <v>24.88844642166259</v>
+        <v>16.01746564778199</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.15983759346538</v>
+        <v>11.20299394005318</v>
       </c>
       <c r="C5">
-        <v>8.331126388260564</v>
+        <v>6.92345313016931</v>
       </c>
       <c r="D5">
-        <v>5.678648164320137</v>
+        <v>4.957392166454675</v>
       </c>
       <c r="E5">
-        <v>12.39008638610724</v>
+        <v>7.517427273635835</v>
       </c>
       <c r="F5">
-        <v>27.65638779086833</v>
+        <v>18.97490809029333</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>25.03715771493107</v>
+        <v>15.83484648866073</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.680006464146386</v>
+        <v>9.753067877873844</v>
       </c>
       <c r="L5">
-        <v>10.15524689660552</v>
+        <v>6.194606110294036</v>
       </c>
       <c r="M5">
-        <v>13.79581564970956</v>
+        <v>8.954711414661604</v>
       </c>
       <c r="N5">
-        <v>20.12053095236785</v>
+        <v>13.30700295954644</v>
       </c>
       <c r="O5">
-        <v>24.90809458980645</v>
+        <v>16.02213700252538</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.15057121412949</v>
+        <v>11.16311862075725</v>
       </c>
       <c r="C6">
-        <v>8.329294993222106</v>
+        <v>6.917456893243382</v>
       </c>
       <c r="D6">
-        <v>5.67632052545126</v>
+        <v>4.950592034120937</v>
       </c>
       <c r="E6">
-        <v>12.39138053936731</v>
+        <v>7.51815197175391</v>
       </c>
       <c r="F6">
-        <v>27.65864910460508</v>
+        <v>18.96501653920919</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>25.04097412678662</v>
+        <v>15.84021235381211</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.673085305471083</v>
+        <v>9.72471830214776</v>
       </c>
       <c r="L6">
-        <v>10.15572460911251</v>
+        <v>6.191413207843506</v>
       </c>
       <c r="M6">
-        <v>13.79476315752914</v>
+        <v>8.941154416502297</v>
       </c>
       <c r="N6">
-        <v>20.12312405184801</v>
+        <v>13.31517821319625</v>
       </c>
       <c r="O6">
-        <v>24.91142560415426</v>
+        <v>16.02307761640679</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21491417227256</v>
+        <v>11.4370404589222</v>
       </c>
       <c r="C7">
-        <v>8.341964642681456</v>
+        <v>6.958940921039421</v>
       </c>
       <c r="D7">
-        <v>5.692405539756382</v>
+        <v>4.997536508004935</v>
       </c>
       <c r="E7">
-        <v>12.3825350272269</v>
+        <v>7.513410227085473</v>
       </c>
       <c r="F7">
-        <v>27.64350761223974</v>
+        <v>19.03485896739348</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>25.01484181529224</v>
+        <v>15.80379861639275</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.72113956368014</v>
+        <v>9.919731574768138</v>
       </c>
       <c r="L7">
-        <v>10.15253149087058</v>
+        <v>6.213780242479083</v>
       </c>
       <c r="M7">
-        <v>13.80224476482389</v>
+        <v>9.035120362936269</v>
       </c>
       <c r="N7">
-        <v>20.10527423519199</v>
+        <v>13.25868698025717</v>
       </c>
       <c r="O7">
-        <v>24.88870681413931</v>
+        <v>16.01751753200967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.49890249683496</v>
+        <v>12.5754012529434</v>
       </c>
       <c r="C8">
-        <v>8.396808381242572</v>
+        <v>7.138473157145146</v>
       </c>
       <c r="D8">
-        <v>5.76158282640305</v>
+        <v>5.198125754454638</v>
       </c>
       <c r="E8">
-        <v>12.34689737920923</v>
+        <v>7.499736940956027</v>
       </c>
       <c r="F8">
-        <v>27.59042362197627</v>
+        <v>19.37243588898103</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>24.90837955863756</v>
+        <v>15.66424734013452</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.933147954733686</v>
+        <v>10.73624691032852</v>
       </c>
       <c r="L8">
-        <v>10.14147396146905</v>
+        <v>6.317468355489487</v>
       </c>
       <c r="M8">
-        <v>13.83958374353295</v>
+        <v>9.445570186615257</v>
       </c>
       <c r="N8">
-        <v>20.0301886790376</v>
+        <v>13.01556654716084</v>
       </c>
       <c r="O8">
-        <v>24.79841135351477</v>
+        <v>16.01758212846759</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.05101497620483</v>
+        <v>14.55751178705325</v>
       </c>
       <c r="C9">
-        <v>8.500346187602444</v>
+        <v>7.476523836728864</v>
       </c>
       <c r="D9">
-        <v>5.890419064262623</v>
+        <v>5.565897264560036</v>
       </c>
       <c r="E9">
-        <v>12.28919261571202</v>
+        <v>7.500061597100846</v>
       </c>
       <c r="F9">
-        <v>27.53574918551126</v>
+        <v>20.13987874443582</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>24.73144106361068</v>
+        <v>15.47221607964683</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.345153287727014</v>
+        <v>12.17663601483532</v>
       </c>
       <c r="L9">
-        <v>10.13064981085868</v>
+        <v>6.537871422810462</v>
       </c>
       <c r="M9">
-        <v>13.92799132840898</v>
+        <v>10.22785076454893</v>
       </c>
       <c r="N9">
-        <v>19.89609731982577</v>
+        <v>12.55972481126559</v>
       </c>
       <c r="O9">
-        <v>24.65720150289088</v>
+        <v>16.11200483039951</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.44948469270484</v>
+        <v>15.86390491856592</v>
       </c>
       <c r="C10">
-        <v>8.573810382261948</v>
+        <v>7.715308300233002</v>
       </c>
       <c r="D10">
-        <v>5.980624122030435</v>
+        <v>5.819010598297848</v>
       </c>
       <c r="E10">
-        <v>12.25420025585147</v>
+        <v>7.517822976805657</v>
       </c>
       <c r="F10">
-        <v>27.5257312437812</v>
+        <v>20.76710739276543</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>24.6208604073553</v>
+        <v>15.38639407818575</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.642513765553016</v>
+        <v>13.13576542717189</v>
       </c>
       <c r="L10">
-        <v>10.12927665151722</v>
+        <v>6.709376812874011</v>
       </c>
       <c r="M10">
-        <v>14.00185749826657</v>
+        <v>10.78306332396139</v>
       </c>
       <c r="N10">
-        <v>19.80551850103056</v>
+        <v>12.23632520509604</v>
       </c>
       <c r="O10">
-        <v>24.57537437890565</v>
+        <v>16.24406667040044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.62836285587469</v>
+        <v>16.42626397018457</v>
       </c>
       <c r="C11">
-        <v>8.606631694091629</v>
+        <v>7.821671179371727</v>
       </c>
       <c r="D11">
-        <v>6.020634394715628</v>
+        <v>5.930188966641603</v>
       </c>
       <c r="E11">
-        <v>12.2398839384368</v>
+        <v>7.529914305607005</v>
       </c>
       <c r="F11">
-        <v>27.52771327147611</v>
+        <v>21.06588323540182</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>24.57477242455027</v>
+        <v>15.36059724888228</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.776024249251392</v>
+        <v>13.55053250426059</v>
       </c>
       <c r="L11">
-        <v>10.13007038775871</v>
+        <v>6.789293150509542</v>
       </c>
       <c r="M11">
-        <v>14.03731621514002</v>
+        <v>11.03040155467676</v>
       </c>
       <c r="N11">
-        <v>19.76601863288465</v>
+        <v>12.09141115712878</v>
       </c>
       <c r="O11">
-        <v>24.54291948694539</v>
+        <v>16.31881852362357</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.69569073700127</v>
+        <v>16.63467201351382</v>
       </c>
       <c r="C12">
-        <v>8.618971370480773</v>
+        <v>7.861609506654668</v>
       </c>
       <c r="D12">
-        <v>6.035632995890084</v>
+        <v>5.971701046474236</v>
       </c>
       <c r="E12">
-        <v>12.23469265243305</v>
+        <v>7.535086397680852</v>
       </c>
       <c r="F12">
-        <v>27.52940236268616</v>
+        <v>21.18092039064378</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>24.5579265447453</v>
+        <v>15.35283992436295</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.826280686480796</v>
+        <v>13.70450075040245</v>
       </c>
       <c r="L12">
-        <v>10.13057390198584</v>
+        <v>6.819812551679245</v>
       </c>
       <c r="M12">
-        <v>14.05100315682215</v>
+        <v>11.12324018476163</v>
       </c>
       <c r="N12">
-        <v>19.75130497737662</v>
+        <v>12.03682763358921</v>
       </c>
       <c r="O12">
-        <v>24.53131610064587</v>
+        <v>16.34931816358336</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.68120969209687</v>
+        <v>16.5899890183513</v>
       </c>
       <c r="C13">
-        <v>8.616317809114515</v>
+        <v>7.853023349471979</v>
       </c>
       <c r="D13">
-        <v>6.032409637484744</v>
+        <v>5.96278713434708</v>
       </c>
       <c r="E13">
-        <v>12.23580046561025</v>
+        <v>7.53394584415495</v>
       </c>
       <c r="F13">
-        <v>27.52899688040958</v>
+        <v>21.15606130052193</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>24.56152761930299</v>
+        <v>15.35441941313012</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.815471189816416</v>
+        <v>13.67147847168025</v>
       </c>
       <c r="L13">
-        <v>10.13045645233575</v>
+        <v>6.813228482229537</v>
       </c>
       <c r="M13">
-        <v>14.04804401029011</v>
+        <v>11.10328334973117</v>
       </c>
       <c r="N13">
-        <v>19.75446298749262</v>
+        <v>12.04857057580536</v>
       </c>
       <c r="O13">
-        <v>24.53378454962517</v>
+        <v>16.34265072104121</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.63391053081436</v>
+        <v>16.44350065065256</v>
       </c>
       <c r="C14">
-        <v>8.60764868870492</v>
+        <v>7.824963795745532</v>
       </c>
       <c r="D14">
-        <v>6.021871422133715</v>
+        <v>5.933616088448948</v>
       </c>
       <c r="E14">
-        <v>12.23945224091159</v>
+        <v>7.530327830898948</v>
       </c>
       <c r="F14">
-        <v>27.52783343689536</v>
+        <v>21.07530960343532</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>24.57337434353972</v>
+        <v>15.3599181153902</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.780165176083647</v>
+        <v>13.56326155403041</v>
       </c>
       <c r="L14">
-        <v>10.13010775101992</v>
+        <v>6.791798943682621</v>
       </c>
       <c r="M14">
-        <v>14.03843709133942</v>
+        <v>11.03805630899843</v>
       </c>
       <c r="N14">
-        <v>19.7648032458323</v>
+        <v>12.08691482462698</v>
       </c>
       <c r="O14">
-        <v>24.54195110493188</v>
+        <v>16.32128334146806</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.60488321821591</v>
+        <v>16.35318176175631</v>
       </c>
       <c r="C15">
-        <v>8.60232691566272</v>
+        <v>7.807731985286869</v>
       </c>
       <c r="D15">
-        <v>6.015396462184384</v>
+        <v>5.915670793728056</v>
       </c>
       <c r="E15">
-        <v>12.24171899973128</v>
+        <v>7.52818945392326</v>
       </c>
       <c r="F15">
-        <v>27.52724295533509</v>
+        <v>21.0260928181163</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>24.58070981891753</v>
+        <v>15.36355139279878</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.758498634766934</v>
+        <v>13.49657269974598</v>
       </c>
       <c r="L15">
-        <v>10.12992055896488</v>
+        <v>6.778705707259331</v>
       </c>
       <c r="M15">
-        <v>14.03258614273712</v>
+        <v>10.99799375325196</v>
       </c>
       <c r="N15">
-        <v>19.77116870831139</v>
+        <v>12.11043910076371</v>
       </c>
       <c r="O15">
-        <v>24.54704279149088</v>
+        <v>16.30848315230618</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.43774080459659</v>
+        <v>15.82651489291534</v>
       </c>
       <c r="C16">
-        <v>8.571653138534348</v>
+        <v>7.708310508516078</v>
       </c>
       <c r="D16">
-        <v>5.977988302290963</v>
+        <v>5.811663405212967</v>
       </c>
       <c r="E16">
-        <v>12.25516806475383</v>
+        <v>7.517114918985237</v>
       </c>
       <c r="F16">
-        <v>27.52573316143254</v>
+        <v>20.74784921103253</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>24.62395723290168</v>
+        <v>15.38835553551101</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.633748960458508</v>
+        <v>13.10822600124268</v>
       </c>
       <c r="L16">
-        <v>10.12925323540448</v>
+        <v>6.704190897761545</v>
       </c>
       <c r="M16">
-        <v>13.99957691484025</v>
+        <v>10.7667876517323</v>
       </c>
       <c r="N16">
-        <v>19.80813412502891</v>
+        <v>12.2458379380078</v>
       </c>
       <c r="O16">
-        <v>24.5775914155775</v>
+        <v>16.23948389250334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.33454460531684</v>
+        <v>15.49527712165272</v>
       </c>
       <c r="C17">
-        <v>8.552680444375687</v>
+        <v>7.646729047046068</v>
       </c>
       <c r="D17">
-        <v>5.954773542777228</v>
+        <v>5.746828819615706</v>
       </c>
       <c r="E17">
-        <v>12.26382866264432</v>
+        <v>7.511360321669044</v>
       </c>
       <c r="F17">
-        <v>27.52648073939828</v>
+        <v>20.5805746656408</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>24.65156817147299</v>
+        <v>15.40703929685797</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.556733273345991</v>
+        <v>12.86446979694433</v>
       </c>
       <c r="L17">
-        <v>10.12920643922667</v>
+        <v>6.658952994531356</v>
       </c>
       <c r="M17">
-        <v>13.97979712026147</v>
+        <v>10.62355691330933</v>
       </c>
       <c r="N17">
-        <v>19.8312471068739</v>
+        <v>12.32944782920059</v>
       </c>
       <c r="O17">
-        <v>24.59755402069115</v>
+        <v>16.20097357917443</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.27496785318845</v>
+        <v>15.30175011924539</v>
       </c>
       <c r="C18">
-        <v>8.541711755757433</v>
+        <v>7.611096877449196</v>
       </c>
       <c r="D18">
-        <v>5.941324896674723</v>
+        <v>5.70916551186422</v>
       </c>
       <c r="E18">
-        <v>12.26896080853218</v>
+        <v>7.508427044774141</v>
       </c>
       <c r="F18">
-        <v>27.52752637944092</v>
+        <v>20.48563080716151</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>24.66784603111692</v>
+        <v>15.41902570627487</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.512272906571333</v>
+        <v>12.72223907408766</v>
       </c>
       <c r="L18">
-        <v>10.12931309541837</v>
+        <v>6.633112919155247</v>
       </c>
       <c r="M18">
-        <v>13.96859552769376</v>
+        <v>10.54068562415128</v>
       </c>
       <c r="N18">
-        <v>19.84470161863103</v>
+        <v>12.37774683400479</v>
       </c>
       <c r="O18">
-        <v>24.60948479051302</v>
+        <v>16.18020013782349</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.25476030140931</v>
+        <v>15.23570723177967</v>
       </c>
       <c r="C19">
-        <v>8.537988405168649</v>
+        <v>7.598996452780401</v>
       </c>
       <c r="D19">
-        <v>5.936755063520695</v>
+        <v>5.696350053546942</v>
       </c>
       <c r="E19">
-        <v>12.27072437542132</v>
+        <v>7.507498065445904</v>
       </c>
       <c r="F19">
-        <v>27.5279861981237</v>
+        <v>20.45370330140069</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>24.67342556859754</v>
+        <v>15.42329386211635</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.497192902396275</v>
+        <v>12.67373378533886</v>
       </c>
       <c r="L19">
-        <v>10.12937217822951</v>
+        <v>6.624395249392266</v>
       </c>
       <c r="M19">
-        <v>13.96483317857603</v>
+        <v>10.51254520660168</v>
       </c>
       <c r="N19">
-        <v>19.84928469023228</v>
+        <v>12.39413663012151</v>
       </c>
       <c r="O19">
-        <v>24.61360139948962</v>
+        <v>16.17340049295517</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.34555338294733</v>
+        <v>15.53084891516149</v>
       </c>
       <c r="C20">
-        <v>8.554705948100933</v>
+        <v>7.653306560568336</v>
       </c>
       <c r="D20">
-        <v>5.957254780113281</v>
+        <v>5.753769233398027</v>
       </c>
       <c r="E20">
-        <v>12.26289112261379</v>
+        <v>7.51193380993825</v>
       </c>
       <c r="F20">
-        <v>27.52633745158517</v>
+        <v>20.59825034579464</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>24.64858787176763</v>
+        <v>15.40492127798115</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.564948948323988</v>
+        <v>12.8906280097534</v>
       </c>
       <c r="L20">
-        <v>10.12919760367449</v>
+        <v>6.663750179170893</v>
       </c>
       <c r="M20">
-        <v>13.98188463159186</v>
+        <v>10.63885519897844</v>
       </c>
       <c r="N20">
-        <v>19.82877008344163</v>
+        <v>12.3205259749956</v>
       </c>
       <c r="O20">
-        <v>24.59538251089276</v>
+        <v>16.20492998121258</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.6478150593449</v>
+        <v>16.48665081874303</v>
       </c>
       <c r="C21">
-        <v>8.610197460400556</v>
+        <v>7.833214867494872</v>
       </c>
       <c r="D21">
-        <v>6.024970928064588</v>
+        <v>5.942200447386353</v>
       </c>
       <c r="E21">
-        <v>12.23837338696554</v>
+        <v>7.531374294674889</v>
       </c>
       <c r="F21">
-        <v>27.52814971430247</v>
+        <v>21.09897714370855</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>24.56987820612718</v>
+        <v>15.35824755857035</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.790543948604363</v>
+        <v>13.59513142909758</v>
       </c>
       <c r="L21">
-        <v>10.13020467375548</v>
+        <v>6.798086474821111</v>
       </c>
       <c r="M21">
-        <v>14.04125189482565</v>
+        <v>11.05723792294349</v>
       </c>
       <c r="N21">
-        <v>19.76175944535382</v>
+        <v>12.07564445802518</v>
       </c>
       <c r="O21">
-        <v>24.53953375003594</v>
+        <v>16.32749930833128</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.84294634737516</v>
+        <v>17.08485214244562</v>
       </c>
       <c r="C22">
-        <v>8.645943959608452</v>
+        <v>7.948814418533627</v>
       </c>
       <c r="D22">
-        <v>6.068336654258331</v>
+        <v>6.061912440757292</v>
       </c>
       <c r="E22">
-        <v>12.2236900264654</v>
+        <v>7.547545900635886</v>
       </c>
       <c r="F22">
-        <v>27.53480336634743</v>
+        <v>21.43727168689291</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>24.52197303457419</v>
+        <v>15.33951905882113</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.936208007694272</v>
+        <v>14.03753044503383</v>
       </c>
       <c r="L22">
-        <v>10.13204523118389</v>
+        <v>6.887372816030054</v>
       </c>
       <c r="M22">
-        <v>14.08156069007261</v>
+        <v>11.32585225833068</v>
       </c>
       <c r="N22">
-        <v>19.71938635626625</v>
+        <v>11.91729153673494</v>
       </c>
       <c r="O22">
-        <v>24.50703555739896</v>
+        <v>16.42042232575764</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.73904283088686</v>
+        <v>16.76798749632211</v>
       </c>
       <c r="C23">
-        <v>8.626914004594752</v>
+        <v>7.887302086324556</v>
       </c>
       <c r="D23">
-        <v>6.045274697716795</v>
+        <v>5.998340093729264</v>
       </c>
       <c r="E23">
-        <v>12.23140428758428</v>
+        <v>7.538592256341705</v>
       </c>
       <c r="F23">
-        <v>27.53075251474521</v>
+        <v>21.25571973824514</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>24.54721723150647</v>
+        <v>15.3484012835671</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.858641955212432</v>
+        <v>13.80306135466853</v>
       </c>
       <c r="L23">
-        <v>10.13095506149635</v>
+        <v>6.839587895831708</v>
       </c>
       <c r="M23">
-        <v>14.05991161629614</v>
+        <v>11.18294988798304</v>
       </c>
       <c r="N23">
-        <v>19.74187188874492</v>
+        <v>12.00166113886511</v>
       </c>
       <c r="O23">
-        <v>24.52401400486011</v>
+        <v>16.36962844518152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.34057708161124</v>
+        <v>15.51477654787211</v>
       </c>
       <c r="C24">
-        <v>8.553790407755452</v>
+        <v>7.650333576324335</v>
       </c>
       <c r="D24">
-        <v>5.956133330566979</v>
+        <v>5.750632682655742</v>
       </c>
       <c r="E24">
-        <v>12.26331450769846</v>
+        <v>7.511673368735853</v>
       </c>
       <c r="F24">
-        <v>27.52640031356381</v>
+        <v>20.59025535398619</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>24.64993400697641</v>
+        <v>15.40587496489625</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.561235208060253</v>
+        <v>12.87880839813657</v>
       </c>
       <c r="L24">
-        <v>10.12920118213006</v>
+        <v>6.661580848118021</v>
       </c>
       <c r="M24">
-        <v>13.98094033739099</v>
+        <v>10.63194047700919</v>
       </c>
       <c r="N24">
-        <v>19.82988942685225</v>
+        <v>12.32455882529786</v>
       </c>
       <c r="O24">
-        <v>24.59636283634959</v>
+        <v>16.20313704131191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.90261629527803</v>
+        <v>14.04781181920887</v>
       </c>
       <c r="C25">
-        <v>8.472782361473815</v>
+        <v>7.386685679567289</v>
       </c>
       <c r="D25">
-        <v>5.856326282879941</v>
+        <v>5.469309289688728</v>
       </c>
       <c r="E25">
-        <v>12.30350151989022</v>
+        <v>7.496966723501185</v>
       </c>
       <c r="F25">
-        <v>27.54524434100038</v>
+        <v>19.92103777908851</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>24.77589860881516</v>
+        <v>15.51487109616683</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.234418912979219</v>
+        <v>11.80433863800799</v>
       </c>
       <c r="L25">
-        <v>10.13241935430583</v>
+        <v>6.476502529507655</v>
       </c>
       <c r="M25">
-        <v>13.90248317618695</v>
+        <v>10.01927760572629</v>
       </c>
       <c r="N25">
-        <v>19.93097288709414</v>
+        <v>12.68092753629269</v>
       </c>
       <c r="O25">
-        <v>24.6915570317898</v>
+        <v>16.07581936662433</v>
       </c>
     </row>
   </sheetData>
